--- a/biology/Zoologie/Drymarchon/Drymarchon.xlsx
+++ b/biology/Zoologie/Drymarchon/Drymarchon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Drymarchon est un genre de serpents de la famille des Colubridae[1]. Les espèces regroupées dans ce genre sont communément appelées Serpent indigo ou plus rarement Cribo.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Drymarchon est un genre de serpents de la famille des Colubridae. Les espèces regroupées dans ce genre sont communément appelées Serpent indigo ou plus rarement Cribo.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent dans le sud des États-Unis, en Amérique centrale et dans le nord de l'Amérique du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent dans le sud des États-Unis, en Amérique centrale et dans le nord de l'Amérique du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (11 janvier 2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (11 janvier 2020) :
 Drymarchon caudomaculatus Wüster, Yrausquin &amp; Mijares-Urrutia, 2001
 Drymarchon corais (Boie, 1827)
 Drymarchon couperi (Holbrook, 1842)
@@ -577,7 +593,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Drymarchon vient du grec Δρυμός, drymos, « forêt », et ἄρχων, archon, « seigneur ».
 </t>
@@ -608,7 +626,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Fitzinger, 1843 : Systema Reptilium, fasciculus primus, Amblyglossae. Braumüller et Seidel, Wien, p. 1-106 (texte intégral).</t>
         </is>
